--- a/MSExcel_In_Java-master/archivo.xlsx
+++ b/MSExcel_In_Java-master/archivo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macia\Downloads\MSExcel_In_Java-master\PBN.23B.Equipo11\MSExcel_In_Java-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macia\Documents\PBN.23B.Equipo11\MSExcel_In_Java-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68004E70-4C79-4C85-A6BD-6D80DD433B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCE46C-54C9-4B4F-8E9A-E047DEC11FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,32 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
-  <si>
-    <t>; comentario número 1 =Programación=</t>
-  </si>
-  <si>
-    <t>ORG %00001111</t>
-  </si>
-  <si>
-    <t>Et1: EQU $FFFF</t>
-  </si>
-  <si>
-    <t>dos: LDAA @4732</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>SWI</t>
   </si>
   <si>
-    <t>DS.B %0011000011111100</t>
-  </si>
-  <si>
-    <t>; comentario número 2 ¡Bajo!</t>
-  </si>
-  <si>
-    <t>; comentario número 3 -Nivel- Tres: SWI</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
@@ -67,30 +46,18 @@
     <t>ORG</t>
   </si>
   <si>
-    <t>DIRECT</t>
-  </si>
-  <si>
     <t>Et1:</t>
   </si>
   <si>
-    <t>INH</t>
-  </si>
-  <si>
     <t>dos:</t>
   </si>
   <si>
     <t>EORA</t>
   </si>
   <si>
-    <t>DIR</t>
-  </si>
-  <si>
     <t>@5</t>
   </si>
   <si>
-    <t>%111</t>
-  </si>
-  <si>
     <t>$FFF</t>
   </si>
   <si>
@@ -149,57 +116,6 @@
   </si>
   <si>
     <t>Uno:</t>
-  </si>
-  <si>
-    <t>EXT</t>
-  </si>
-  <si>
-    <t>IMM</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>IDX(5b)</t>
-  </si>
-  <si>
-    <t>IDX1</t>
-  </si>
-  <si>
-    <t>IDX2</t>
-  </si>
-  <si>
-    <t>[IDX2]</t>
-  </si>
-  <si>
-    <t>[D,IDX]</t>
-  </si>
-  <si>
-    <t>REL(9b)</t>
-  </si>
-  <si>
-    <t>REL(16b)</t>
-  </si>
-  <si>
-    <t>REL(8b)</t>
-  </si>
-  <si>
-    <t>IDX(acc)</t>
-  </si>
-  <si>
-    <t>IDX(pre-inc)</t>
-  </si>
-  <si>
-    <t>1 bytes</t>
-  </si>
-  <si>
-    <t>2 bytes</t>
-  </si>
-  <si>
-    <t>3 bytes</t>
-  </si>
-  <si>
-    <t>4 bytes</t>
   </si>
 </sst>
 </file>
@@ -209,18 +125,10 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,20 +150,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,398 +500,301 @@
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4040</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>4040</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{05D9D759-8076-4288-87E3-AAEFF5C90AA1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>